--- a/StructureDefinition-profile-Group.xlsx
+++ b/StructureDefinition-profile-Group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="327">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7061346-06:00</t>
+    <t>2026-02-09T22:05:43.1453199-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,33 +416,81 @@
     <t>Group.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Group.extension:membership</t>
+  </si>
+  <si>
+    <t>membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Group.membership from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Basis for membership in the Group:
+* 'definitional': The Group.characteristics specified are both necessary and sufficient to determine membership. All entities that meet the criteria are considered to be members of the group, whether referenced by the group or not. If members are present, they are individuals that happen to be known as meeting the Group.characteristics. The list cannot be presumed to be complete.
+* 'enumerated': The Group.characteristics are necessary but not sufficient to determine membership. Membership is determined by being listed as one of the Group.member.</t>
+  </si>
+  <si>
+    <t>Element `Group.membership` is will have a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Group.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Group.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of what the group represents and how it is intended to be used.</t>
+  </si>
+  <si>
+    <t>Element `Group.description` is will have a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
+  </si>
+  <si>
+    <t>Group.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Group.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -552,20 +603,13 @@
     <t>Group.type.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Group.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.type|0.0.1-snapshot-3}
@@ -575,11 +619,7 @@
     <t>Cross-version extension for Group.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Group members SHALL be of the appropriate resource type (Patient for person or animal; or Practitioner, PractitionerRole, Device, CareTeam, HealthcareService, Location, Organization, RelatedPerson, or Specimen for the other types.), or a Group of the resources of the appropriate type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `Group.type` is mapped to FHIR R4 element `Group.type`.</t>
   </si>
   <si>
     <t>Group.type.value</t>
@@ -728,6 +768,9 @@
     <t>Group.characteristic.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -865,11 +908,24 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.member.entity|0.0.1-snapshot-3}
+    <t>Group.member.entity.extension:entity</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Group.member.entity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Specimen in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Group.member.entity` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Group.member.entity` is mapped to FHIR R4 element `Group.member.entity`.</t>
   </si>
   <si>
     <t>Group.member.entity.reference</t>
@@ -1286,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1297,7 +1353,7 @@
   <cols>
     <col min="1" max="1" width="32.38671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.06640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2213,11 +2269,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2232,17 +2288,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2279,16 +2333,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2306,7 +2358,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2317,43 +2369,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2401,7 +2453,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2410,13 +2462,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2424,12 +2476,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2438,7 +2492,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2447,21 +2501,21 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2509,7 +2563,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2518,64 +2572,64 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2619,25 +2673,25 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2653,10 +2707,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2668,17 +2722,15 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>161</v>
       </c>
@@ -2705,13 +2757,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2732,10 +2784,10 @@
         <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2744,18 +2796,18 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2775,85 +2827,89 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="R14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2872,7 +2928,7 @@
         <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2881,10 +2937,10 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>173</v>
@@ -2892,8 +2948,12 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2917,55 +2977,57 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2973,7 +3035,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -2988,17 +3050,15 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3047,19 +3107,19 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3070,10 +3130,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3081,10 +3141,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3096,13 +3156,13 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3141,31 +3201,29 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3176,12 +3234,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3199,21 +3259,21 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3261,33 +3321,33 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3307,20 +3367,18 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>195</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3345,32 +3403,32 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3381,21 +3439,21 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3403,7 +3461,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
@@ -3418,17 +3476,17 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3477,33 +3535,33 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3526,20 +3584,18 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3563,10 +3619,10 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>75</v>
@@ -3587,7 +3643,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3602,10 +3658,10 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3636,18 +3692,18 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3710,7 +3766,7 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3788,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3741,7 +3797,7 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>218</v>
@@ -3811,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3851,18 +3907,20 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -3911,7 +3969,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3923,10 +3981,10 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -3934,14 +3992,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3960,18 +4018,20 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4019,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4031,10 +4091,10 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4042,46 +4102,42 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4129,22 +4185,22 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4152,21 +4208,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4178,18 +4234,18 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4213,46 +4269,46 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4260,45 +4316,45 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4323,10 +4379,10 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4347,22 +4403,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4396,7 +4452,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>249</v>
@@ -4404,11 +4460,9 @@
       <c r="M29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4433,10 +4487,10 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
@@ -4472,7 +4526,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4480,10 +4534,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4491,7 +4545,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
@@ -4506,16 +4560,20 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4539,10 +4597,10 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>75</v>
@@ -4563,10 +4621,10 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>85</v>
@@ -4578,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4586,10 +4644,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4597,10 +4655,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4612,17 +4670,19 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4671,22 +4731,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4694,10 +4754,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4720,13 +4780,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4777,7 +4837,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4789,10 +4849,10 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4800,14 +4860,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4826,18 +4886,18 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4885,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4894,13 +4954,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4908,46 +4968,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -4995,22 +5051,22 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5018,21 +5074,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5044,15 +5100,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5101,22 +5159,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5124,42 +5182,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5207,22 +5269,22 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5230,10 +5292,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5244,7 +5306,7 @@
         <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5256,13 +5318,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5301,31 +5363,31 @@
         <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5336,10 +5398,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5347,7 +5409,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5362,13 +5424,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5419,22 +5481,22 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5442,10 +5504,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5453,10 +5515,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5465,20 +5527,18 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5515,34 +5575,34 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5550,18 +5610,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>85</v>
@@ -5573,19 +5635,19 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5611,13 +5673,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5635,22 +5697,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5658,10 +5720,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5684,16 +5746,16 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5743,7 +5805,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5752,13 +5814,13 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5766,10 +5828,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5792,16 +5854,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5827,13 +5889,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -5851,7 +5913,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5874,10 +5936,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5897,27 +5959,25 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>75</v>
       </c>
@@ -5961,7 +6021,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5976,7 +6036,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -5984,10 +6044,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6007,27 +6067,25 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6071,7 +6129,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6086,9 +6144,229 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Group.xlsx
+++ b/StructureDefinition-profile-Group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="301">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1453199-06:00</t>
+    <t>2026-02-17T14:42:26.8203483-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,7 +458,7 @@
 * 'enumerated': The Group.characteristics are necessary but not sufficient to determine membership. Membership is determined by being listed as one of the Group.member.</t>
   </si>
   <si>
-    <t>Element `Group.membership` is will have a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
+    <t>Element `Group.membership` has a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -481,7 +481,7 @@
     <t>Explanation of what the group represents and how it is intended to be used.</t>
   </si>
   <si>
-    <t>Element `Group.description` is will have a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
+    <t>Element `Group.description` has a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
   </si>
   <si>
     <t>Group.modifierExtension</t>
@@ -619,7 +619,7 @@
     <t>Cross-version extension for Group.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Group.type` is mapped to FHIR R4 element `Group.type`.</t>
+    <t>Element `Group.type` has is mapped to FHIR R4 element `Group.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Group.type.value</t>
@@ -768,10 +768,20 @@
     <t>Group.characteristic.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Group.characteristic.extension:characteristic</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.characteristic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Group.characteristic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Group.characteristic` has is mapped to FHIR R4 element `Group.characteristic`, but has no comparisons.</t>
   </si>
   <si>
     <t>Group.characteristic.modifierExtension</t>
@@ -883,6 +893,22 @@
     <t>Group.member.extension</t>
   </si>
   <si>
+    <t>Group.member.extension:member</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.member|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Group.member from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Group.member` has is mapped to FHIR R4 element `Group.member`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Group.member.modifierExtension</t>
   </si>
   <si>
@@ -897,115 +923,6 @@
   </si>
   <si>
     <t>A reference to the entity that is a member of the group. Must be consistent with Group.type. If the entity is another group, then the type must be the same.</t>
-  </si>
-  <si>
-    <t>Group.member.entity.id</t>
-  </si>
-  <si>
-    <t>Group.member.entity.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Group.member.entity.extension:entity</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Group.member.entity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Specimen in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Group.member.entity` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Group.member.entity` is mapped to FHIR R4 element `Group.member.entity`.</t>
-  </si>
-  <si>
-    <t>Group.member.entity.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Group.member.entity.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Group.member.entity.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Group.member.entity.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Group.member.period</t>
@@ -1342,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1351,9 +1268,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.06640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1376,10 +1293,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4215,7 +4132,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4237,14 +4154,12 @@
         <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4281,16 +4196,14 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>188</v>
@@ -4308,7 +4221,7 @@
         <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4316,14 +4229,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4336,26 +4251,24 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4403,7 +4316,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4412,13 +4325,13 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4426,43 +4339,45 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4487,10 +4402,10 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
@@ -4511,22 +4426,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4534,10 +4449,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4560,19 +4475,17 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4600,7 +4513,7 @@
         <v>208</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>75</v>
@@ -4621,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
@@ -4636,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4644,10 +4557,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4670,19 +4583,19 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4707,10 +4620,10 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>75</v>
@@ -4731,7 +4644,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
@@ -4746,7 +4659,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4754,10 +4667,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4765,7 +4678,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>85</v>
@@ -4780,16 +4693,20 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4837,10 +4754,10 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>85</v>
@@ -4852,7 +4769,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4860,10 +4777,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4874,7 +4791,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4886,7 +4803,7 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>272</v>
@@ -4895,9 +4812,7 @@
         <v>273</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4945,22 +4860,22 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4968,10 +4883,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4982,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -4994,16 +4909,18 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5051,22 +4968,22 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5074,21 +4991,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5100,17 +5017,15 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5159,19 +5074,19 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>239</v>
@@ -5182,14 +5097,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5202,26 +5117,22 @@
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5257,19 +5168,17 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5284,7 +5193,7 @@
         <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5292,21 +5201,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5318,15 +5229,17 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5375,19 +5288,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5398,42 +5311,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5481,22 +5398,22 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5504,10 +5421,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5518,7 +5435,7 @@
         <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5530,13 +5447,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5575,31 +5492,31 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5610,20 +5527,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>85</v>
@@ -5638,78 +5553,80 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -5720,10 +5637,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5743,25 +5660,27 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5814,559 +5733,15 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL46" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Group.xlsx
+++ b/StructureDefinition-profile-Group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8203483-06:00</t>
+    <t>2026-02-20T11:59:20.8247099-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Group|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Group</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>membership</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership}
 </t>
   </si>
   <si>
@@ -471,17 +471,18 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.description|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-description}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Group.description from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Explanation of what the group represents and how it is intended to be used.</t>
-  </si>
-  <si>
-    <t>Element `Group.description` has a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
+    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Group.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `Group.description` has a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
   </si>
   <si>
     <t>Group.modifierExtension</t>
@@ -612,7 +613,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.type|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.type}
 </t>
   </si>
   <si>
@@ -774,7 +775,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.characteristic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.characteristic}
 </t>
   </si>
   <si>
@@ -899,7 +900,7 @@
     <t>member</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.member|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.member}
 </t>
   </si>
   <si>
@@ -2489,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>136</v>

--- a/StructureDefinition-profile-Group.xlsx
+++ b/StructureDefinition-profile-Group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8247099-06:00</t>
+    <t>2026-02-21T13:36:54.2425672-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Group</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Group|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>membership</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.membership|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -465,26 +465,6 @@
 </t>
   </si>
   <si>
-    <t>Group.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-description}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Group.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Group.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
-Element `Group.description` has a context of Group based on following the parent source element upwards and mapping to `Group`.</t>
-  </si>
-  <si>
     <t>Group.modifierExtension</t>
   </si>
   <si>
@@ -613,14 +593,14 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.type}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Group.type from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Group.type` has is mapped to FHIR R4 element `Group.type`, but has no comparisons.</t>
+    <t>Element `Group.type` is mapped to FHIR R4 element `Group.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Group.type.value</t>
@@ -769,20 +749,10 @@
     <t>Group.characteristic.extension</t>
   </si>
   <si>
-    <t>Group.characteristic.extension:characteristic</t>
-  </si>
-  <si>
-    <t>characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.characteristic}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Group.characteristic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Group.characteristic` has is mapped to FHIR R4 element `Group.characteristic`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Group.characteristic.modifierExtension</t>
@@ -892,22 +862,6 @@
   </si>
   <si>
     <t>Group.member.extension</t>
-  </si>
-  <si>
-    <t>Group.member.extension:member</t>
-  </si>
-  <si>
-    <t>member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Group.member}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Group.member from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Group.member` has is mapped to FHIR R4 element `Group.member`, but has no comparisons.</t>
   </si>
   <si>
     <t>Group.member.modifierExtension</t>
@@ -1260,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1269,9 +1223,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.38671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.06640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2397,43 +2351,43 @@
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2481,7 +2435,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2496,7 +2450,7 @@
         <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2504,14 +2458,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2524,23 +2478,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
@@ -2591,7 +2543,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2603,21 +2555,21 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2628,7 +2580,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2640,22 +2592,24 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2699,13 +2653,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2714,18 +2668,18 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2733,7 +2687,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
@@ -2748,71 +2702,71 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>85</v>
@@ -2824,18 +2778,18 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2843,7 +2797,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
@@ -2855,23 +2809,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -2895,13 +2845,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2919,10 +2869,10 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>85</v>
@@ -2931,21 +2881,21 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2953,10 +2903,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2968,13 +2918,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3013,31 +2963,29 @@
         <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3048,12 +2996,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3062,7 +3012,7 @@
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3074,15 +3024,17 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3119,17 +3071,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3138,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -3152,20 +3106,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -3180,17 +3132,15 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3239,19 +3189,19 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -3262,10 +3212,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3273,7 +3223,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
@@ -3285,19 +3235,21 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3345,25 +3297,25 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AL19" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -3379,7 +3331,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
@@ -3394,18 +3346,18 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3429,10 +3381,10 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>
@@ -3456,30 +3408,30 @@
         <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3502,18 +3454,18 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3537,10 +3489,10 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>75</v>
@@ -3561,7 +3513,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3579,15 +3531,15 @@
         <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3610,7 +3562,7 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>213</v>
@@ -3618,9 +3570,11 @@
       <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3669,7 +3623,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3684,7 +3638,7 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3692,10 +3646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3718,20 +3672,18 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>222</v>
       </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3779,7 +3731,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3794,7 +3746,7 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3802,10 +3754,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3816,7 +3768,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3825,21 +3777,23 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3887,13 +3841,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -3902,7 +3856,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -3910,10 +3864,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3924,7 +3878,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3936,7 +3890,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>231</v>
@@ -3944,12 +3898,8 @@
       <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -3997,22 +3947,22 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4020,21 +3970,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4046,15 +3996,17 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4103,22 +4055,22 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4126,14 +4078,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4146,22 +4098,26 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4197,17 +4153,19 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4222,7 +4180,7 @@
         <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4230,23 +4188,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C28" t="s" s="2">
         <v>242</v>
       </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4258,18 +4214,18 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4293,10 +4249,10 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4317,22 +4273,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4340,45 +4296,45 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4403,10 +4359,10 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
@@ -4427,22 +4383,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4450,10 +4406,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4476,17 +4432,19 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4511,31 +4469,31 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
@@ -4550,7 +4508,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4558,10 +4516,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4569,7 +4527,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
@@ -4584,20 +4542,16 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4621,10 +4575,10 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>75</v>
@@ -4645,10 +4599,10 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>85</v>
@@ -4660,7 +4614,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4668,10 +4622,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4679,10 +4633,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4694,17 +4648,15 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>267</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>268</v>
       </c>
@@ -4755,16 +4707,16 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>97</v>
@@ -4804,13 +4756,13 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4861,7 +4813,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4873,10 +4825,10 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4884,14 +4836,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4910,18 +4862,18 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -4969,7 +4921,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4978,13 +4930,13 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -4992,42 +4944,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5075,22 +5031,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5098,10 +5054,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5109,10 +5065,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5124,13 +5080,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5169,29 +5125,31 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5202,14 +5160,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5218,7 +5174,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5230,22 +5186,24 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5289,19 +5247,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5312,50 +5270,50 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5399,350 +5357,24 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL41" t="s" s="2">
         <v>75</v>
       </c>
     </row>
